--- a/hourly datasets/cap_gen_year5final.xlsx
+++ b/hourly datasets/cap_gen_year5final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1231043930842373</v>
+        <v>0.1225487848221539</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.659360630237451e-05</v>
+        <v>0.0006642914287983296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002897156616820973</v>
+        <v>0.000701332145311826</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9357700652518419</v>
+        <v>4.008249250378249</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1346840787729066</v>
+        <v>0.1513892964512931</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.005621875185996109</v>
+        <v>-0.0007102998848576619</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005735062398600858</v>
+        <v>0.002038882742454322</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1231609866905396</v>
+        <v>0.1232130762509522</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008244922303295802</v>
+        <v>0.007231600581606429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003965996672791283</v>
+        <v>0.0008914135766871937</v>
       </c>
       <c r="D4" t="n">
-        <v>2.001680732722499</v>
+        <v>5.958503751565218</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1099338560846648</v>
+        <v>0.02317579185347605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0047710783625972</v>
+        <v>0.005484455147701155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01469846506017922</v>
+        <v>0.008978746015511704</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1313493153875331</v>
+        <v>0.1297803854037603</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01043520552108693</v>
+        <v>0.01774536296681863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002933608285690484</v>
+        <v>0.001642302739317422</v>
       </c>
       <c r="D5" t="n">
-        <v>3.165850148346362</v>
+        <v>12.63977650596076</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1032312570032314</v>
+        <v>0.002906319831651242</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004336300395964464</v>
+        <v>0.01452649711695079</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01778953536582625</v>
+        <v>0.02096422881668646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1335395986053242</v>
+        <v>0.1402941477889725</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01515922790960151</v>
+        <v>0.03937598183912521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004730186413556914</v>
+        <v>0.002254146770695159</v>
       </c>
       <c r="D6" t="n">
-        <v>3.941197700302487</v>
+        <v>19.18421404728755</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05292723954377138</v>
+        <v>0.04240242214453866</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00572308770328751</v>
+        <v>0.03495791795192704</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02573180166709693</v>
+        <v>0.04379404572632338</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1382636209938388</v>
+        <v>0.1619247666612791</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02030071010407831</v>
+        <v>0.04944733184074588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00458855197849783</v>
+        <v>0.002575337438793602</v>
       </c>
       <c r="D7" t="n">
-        <v>3.938523812798002</v>
+        <v>18.47603540663996</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.09447398987948456</v>
+        <v>0.04749048197975473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01102137309181268</v>
+        <v>0.04439974714467964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03065386199740213</v>
+        <v>0.05449491653681209</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1434051031883156</v>
+        <v>0.1719961166628998</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01528352799475618</v>
+        <v>0.05038394550115362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004706053215436888</v>
+        <v>0.003838852250574208</v>
       </c>
       <c r="D8" t="n">
-        <v>2.740808210594692</v>
+        <v>15.74824721934973</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02453562115687587</v>
+        <v>0.1208775797372662</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005941736056333663</v>
+        <v>0.04285990862410705</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02566010769134724</v>
+        <v>0.05790798237820018</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1383879210789934</v>
+        <v>0.1729327303233075</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01133851881492287</v>
+        <v>0.04935570879665811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003821700327322207</v>
+        <v>0.005108216307462673</v>
       </c>
       <c r="D9" t="n">
-        <v>2.463456572609777</v>
+        <v>14.47308383289499</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06738243525861506</v>
+        <v>0.1373486666019877</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003627082523122225</v>
+        <v>0.03934376161083224</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02000487069605811</v>
+        <v>0.05936765598248396</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1344429118991601</v>
+        <v>0.171904493618812</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1231043930842373</v>
+        <v>-0.1225487848221539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001666038663187003</v>
+        <v>0.0005637990335111847</v>
       </c>
       <c r="D10" t="n">
-        <v>-111.7923930516547</v>
+        <v>-244.8194557402864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005216763125838048</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1263698938992062</v>
+        <v>-0.1236538151594107</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1198388922692683</v>
+        <v>-0.1214437544848971</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05903093941475079</v>
+        <v>-0.06057886980565406</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001876772528487581</v>
+        <v>0.0006286346230349478</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.7646541754108</v>
+        <v>-100.3116957944558</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002138757073464798</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06270950412288986</v>
+        <v>-0.06181097596994985</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05535237470661172</v>
+        <v>-0.0593467636413583</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06407345366948647</v>
+        <v>0.06196991501649983</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0516127891407806</v>
+        <v>-0.05231118864881306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001831094612173796</v>
+        <v>0.0006277323703255119</v>
       </c>
       <c r="D12" t="n">
-        <v>-38.75905593262499</v>
+        <v>-86.74497594235785</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0004119425028136923</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05520181875987239</v>
+        <v>-0.05354152644009074</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04802375952168881</v>
+        <v>-0.05108085085753535</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07149160394345666</v>
+        <v>0.07023759617334083</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04218176737508997</v>
+        <v>-0.04361797780264658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001816888822542002</v>
+        <v>0.0006194816333964756</v>
       </c>
       <c r="D13" t="n">
-        <v>-31.3103992725975</v>
+        <v>-71.43910871122776</v>
       </c>
       <c r="E13" t="n">
-        <v>3.851064922558445e-05</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04574295183773285</v>
+        <v>-0.04483214439492577</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0386205829124471</v>
+        <v>-0.04240381121036739</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08092262570914729</v>
+        <v>0.07893080701950732</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0382641517769361</v>
+        <v>-0.03949396645757155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001806715377240918</v>
+        <v>0.0006173284884751704</v>
       </c>
       <c r="D14" t="n">
-        <v>-28.60564487720831</v>
+        <v>-63.8633445034966</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004289751388340096</v>
+        <v>5.723627552016212e-261</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04180538709220963</v>
+        <v>-0.04070391295890632</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03472291646166256</v>
+        <v>-0.03828401995623677</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08484024130730117</v>
+        <v>0.08305481836458234</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03243458912458456</v>
+        <v>-0.03464392156095113</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001724019304292711</v>
+        <v>0.000601832964539926</v>
       </c>
       <c r="D15" t="n">
-        <v>-26.07943350038401</v>
+        <v>-56.38244097199102</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0004431837169832367</v>
+        <v>3.488455357346417e-140</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03581372083816642</v>
+        <v>-0.03582349728424131</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02905545741100269</v>
+        <v>-0.03346434583766096</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0906698039596527</v>
+        <v>0.08790486326120277</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03177204400502529</v>
+        <v>-0.03189213366479873</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001673652650263508</v>
+        <v>0.0005806754641529313</v>
       </c>
       <c r="D16" t="n">
-        <v>-25.04712123638234</v>
+        <v>-52.28810489118829</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03951471436910583</v>
+        <v>1.628779986981933e-113</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0350524543805556</v>
+        <v>-0.03303024134113088</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02849163362949496</v>
+        <v>-0.03075402598846658</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09133234907921198</v>
+        <v>0.09065665115735516</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02777464573635339</v>
+        <v>-0.02900455138610384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001682167299404246</v>
+        <v>0.0005856438183715592</v>
       </c>
       <c r="D17" t="n">
-        <v>-22.4756743413926</v>
+        <v>-47.49473851410416</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01982419070745401</v>
+        <v>4.151123576442654e-71</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03107174199599625</v>
+        <v>-0.03015239688676554</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02447754947671052</v>
+        <v>-0.02785670588544216</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09532974734788388</v>
+        <v>0.09354423343605005</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02682399071001175</v>
+        <v>-0.02778046200621384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0016654267305502</v>
+        <v>0.0005918602127313485</v>
       </c>
       <c r="D18" t="n">
-        <v>-21.36812952314942</v>
+        <v>-45.36702410947227</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01817947370977933</v>
+        <v>1.291535726137029e-44</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03008826371872595</v>
+        <v>-0.02894049143467792</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02355971770129755</v>
+        <v>-0.02662043257774977</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09628040237422551</v>
+        <v>0.09476832281594005</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02153587626744283</v>
+        <v>-0.02266152359602177</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001709212960871895</v>
+        <v>0.0005999684431477382</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.1118994934744</v>
+        <v>-37.2420782396519</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04811662094457398</v>
+        <v>1.327004240520837e-35</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02488598236550912</v>
+        <v>-0.02383744499539763</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01818577016937654</v>
+        <v>-0.02148560219664589</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1015685168167944</v>
+        <v>0.09988726122613213</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01709994565999511</v>
+        <v>-0.01943808609083728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001706838497741572</v>
+        <v>0.0006047593180176778</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.40809957960043</v>
+        <v>-30.70796846209864</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09495194810512296</v>
+        <v>4.956202391358433e-16</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0204453958082941</v>
+        <v>-0.02062339754251966</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01375449551169613</v>
+        <v>-0.0182527746391549</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1060044474242421</v>
+        <v>0.1031106987313166</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01301109371533976</v>
+        <v>-0.01535763598063881</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001710735353693688</v>
+        <v>0.0006064099760532624</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.13636467853381</v>
+        <v>-24.77052937055897</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06997265113108408</v>
+        <v>4.595342966176211e-08</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01636417459270311</v>
+        <v>-0.01654618261416826</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.009658012837976411</v>
+        <v>-0.01416908934710935</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1100932993688975</v>
+        <v>0.1071911488415151</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01027230260388882</v>
+        <v>-0.01168270091330123</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001714675732927528</v>
+        <v>0.0005915934827280048</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.243884304040183</v>
+        <v>-18.9907449089927</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09225602428376256</v>
+        <v>0.0004712429164848759</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01363310439766244</v>
+        <v>-0.01284220758429973</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.006911500810115189</v>
+        <v>-0.01052319424230274</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1128320904803485</v>
+        <v>0.1108660839088527</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.007082635514479111</v>
+        <v>-0.009026339830258931</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001697235169731289</v>
+        <v>0.0005838807018699947</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.431716954343026</v>
+        <v>-15.42972490255434</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1057219697574999</v>
+        <v>0.05298309404894173</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01040925655957691</v>
+        <v>-0.01017072968032115</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003756014469381309</v>
+        <v>-0.007881949980196725</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1160217575697581</v>
+        <v>0.113522444991895</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004271609639728121</v>
+        <v>-0.006258683418861363</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001668757827207671</v>
+        <v>0.0005709994668426012</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.014354666836055</v>
+        <v>-10.05139853199129</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1022079545549325</v>
+        <v>0.0001011949902866033</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007542427134647169</v>
+        <v>-0.007377826487897082</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001000792144809069</v>
+        <v>-0.005139540349825643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1188327834445091</v>
+        <v>0.1162901014032925</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.004677798173051357</v>
+        <v>-0.006472555300048615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001632613730147632</v>
+        <v>0.0005547277163917625</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.576748240365307</v>
+        <v>-9.478052682572638</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1351866940194389</v>
+        <v>0.03125499100556205</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007877767756668985</v>
+        <v>-0.007559806294410761</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.00147782858943373</v>
+        <v>-0.005385304305686471</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1184265949111859</v>
+        <v>0.1160762295221053</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02788642416227949</v>
+        <v>0.06177481790951234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002780398444901669</v>
+        <v>0.003779857791944061</v>
       </c>
       <c r="D26" t="n">
-        <v>10.70565602178196</v>
+        <v>46.02572417280035</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.07979520892164803</v>
+        <v>0.1414671711601413</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02225659320420733</v>
+        <v>0.05436641309928673</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03441562190567482</v>
+        <v>0.06918322271973795</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1509908172465168</v>
+        <v>0.1843236027316662</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year5final.xlsx
+++ b/hourly datasets/cap_gen_year5final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1225487848221539</v>
+        <v>0.1209797703947984</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006642914287983296</v>
+        <v>0.002089308703062038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000701332145311826</v>
+        <v>0.0006985687626970338</v>
       </c>
       <c r="D3" t="n">
-        <v>4.008249250378249</v>
+        <v>4.520373574125732</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1513892964512931</v>
+        <v>0.07107426272702802</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0007102998848576619</v>
+        <v>0.0007201335389858184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002038882742454322</v>
+        <v>0.00345848386713826</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1232130762509522</v>
+        <v>0.1230690790978605</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007231600581606429</v>
+        <v>0.01024217460254284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008914135766871937</v>
+        <v>0.0009011464281883686</v>
       </c>
       <c r="D4" t="n">
-        <v>5.958503751565218</v>
+        <v>6.644824702376005</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02317579185347605</v>
+        <v>0.07177496006050352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005484455147701155</v>
+        <v>0.008475953103669437</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008978746015511704</v>
+        <v>0.01200839610141624</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1297803854037603</v>
+        <v>0.1312219449973413</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01774536296681863</v>
+        <v>0.02028663618828075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001642302739317422</v>
+        <v>0.001576510161498548</v>
       </c>
       <c r="D5" t="n">
-        <v>12.63977650596076</v>
+        <v>13.28042297738359</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002906319831651242</v>
+        <v>0.001182805875605856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01452649711695079</v>
+        <v>0.0171967215619678</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02096422881668646</v>
+        <v>0.02337655081459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1402941477889725</v>
+        <v>0.1412664065830792</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03937598183912521</v>
+        <v>0.03881939878911145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002254146770695159</v>
+        <v>0.002487435878206536</v>
       </c>
       <c r="D6" t="n">
-        <v>19.18421404728755</v>
+        <v>18.75494335474501</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04240242214453866</v>
+        <v>4.966715041089692e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03495791795192704</v>
+        <v>0.03394409537173813</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04379404572632338</v>
+        <v>0.04369470220648475</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1619247666612791</v>
+        <v>0.1597991691839099</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04944733184074588</v>
+        <v>0.04528512106239811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002575337438793602</v>
+        <v>0.002450247766066553</v>
       </c>
       <c r="D7" t="n">
-        <v>18.47603540663996</v>
+        <v>17.75747425887568</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04749048197975473</v>
+        <v>0.005071076112776833</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04439974714467964</v>
+        <v>0.0404827074765988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05449491653681209</v>
+        <v>0.05008753464819744</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1719961166628998</v>
+        <v>0.1662648914571965</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05038394550115362</v>
+        <v>0.04720174920127816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003838852250574208</v>
+        <v>0.003628748397988297</v>
       </c>
       <c r="D8" t="n">
-        <v>15.74824721934973</v>
+        <v>15.46617215545358</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1208775797372662</v>
+        <v>0.003835165332490384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04285990862410705</v>
+        <v>0.04008950799018277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05790798237820018</v>
+        <v>0.05431399041237354</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1729327303233075</v>
+        <v>0.1681815195960766</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04935570879665811</v>
+        <v>0.04493209252243339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005108216307462673</v>
+        <v>0.003759078199975125</v>
       </c>
       <c r="D9" t="n">
-        <v>14.47308383289499</v>
+        <v>14.01400992880932</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1373486666019877</v>
+        <v>0.02422627755085175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03934376161083224</v>
+        <v>0.03756441243456</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05936765598248396</v>
+        <v>0.05229977261030676</v>
       </c>
       <c r="H9" t="n">
-        <v>0.171904493618812</v>
+        <v>0.1659118629172318</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1225487848221539</v>
+        <v>-0.1209797703947984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005637990335111847</v>
+        <v>0.0005618713017146018</v>
       </c>
       <c r="D10" t="n">
-        <v>-244.8194557402864</v>
+        <v>-244.3908751303201</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1236538151594107</v>
+        <v>-0.1220810224663037</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1214437544848971</v>
+        <v>-0.1198785183232931</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06057886980565406</v>
+        <v>-0.05887543782651282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006286346230349478</v>
+        <v>0.0006246346491662278</v>
       </c>
       <c r="D11" t="n">
-        <v>-100.3116957944558</v>
+        <v>-99.73853818345948</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06181097596994985</v>
+        <v>-0.06009970418288097</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0593467636413583</v>
+        <v>-0.05765117147014465</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06196991501649983</v>
+        <v>0.06210433256828561</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05231118864881306</v>
+        <v>-0.05069135913768774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006277323703255119</v>
+        <v>0.000624179591895947</v>
       </c>
       <c r="D12" t="n">
-        <v>-86.74497594235785</v>
+        <v>-86.03892654460378</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05354152644009074</v>
+        <v>-0.05191473361242009</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05108085085753535</v>
+        <v>-0.04946798466295541</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07023759617334083</v>
+        <v>0.07028841125711069</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04361797780264658</v>
+        <v>-0.04203988774122252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006194816333964756</v>
+        <v>0.0006165232080574035</v>
       </c>
       <c r="D13" t="n">
-        <v>-71.43910871122776</v>
+        <v>-70.59205500976907</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04483214439492577</v>
+        <v>-0.04324825592950937</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04240381121036739</v>
+        <v>-0.04083151955293567</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07893080701950732</v>
+        <v>0.0789398826535759</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03949396645757155</v>
+        <v>-0.0378348859531329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006173284884751704</v>
+        <v>0.0006136696655682695</v>
       </c>
       <c r="D14" t="n">
-        <v>-63.8633445034966</v>
+        <v>-62.87905218504054</v>
       </c>
       <c r="E14" t="n">
-        <v>5.723627552016212e-261</v>
+        <v>5.767544313461574e-283</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04070391295890632</v>
+        <v>-0.03903766129394022</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03828401995623677</v>
+        <v>-0.03663211061232558</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08305481836458234</v>
+        <v>0.08314488444166553</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03464392156095113</v>
+        <v>-0.03309209760491393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000601832964539926</v>
+        <v>0.0005989420244442222</v>
       </c>
       <c r="D15" t="n">
-        <v>-56.38244097199102</v>
+        <v>-55.30499359554866</v>
       </c>
       <c r="E15" t="n">
-        <v>3.488455357346417e-140</v>
+        <v>4.829208641091726e-144</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03582349728424131</v>
+        <v>-0.03426600719654359</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03346434583766096</v>
+        <v>-0.03191818801328427</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08790486326120277</v>
+        <v>0.08788767278988451</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03189213366479873</v>
+        <v>-0.03024884685571339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005806754641529313</v>
+        <v>0.0005761119199505458</v>
       </c>
       <c r="D16" t="n">
-        <v>-52.28810489118829</v>
+        <v>-51.38468234111776</v>
       </c>
       <c r="E16" t="n">
-        <v>1.628779986981933e-113</v>
+        <v>7.136430771357794e-80</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03303024134113088</v>
+        <v>-0.03137801014060445</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03075402598846658</v>
+        <v>-0.02911968357082233</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09065665115735516</v>
+        <v>0.09073092353908505</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02900455138610384</v>
+        <v>-0.02760798620709253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005856438183715592</v>
+        <v>0.0005827286809812273</v>
       </c>
       <c r="D17" t="n">
-        <v>-47.49473851410416</v>
+        <v>-46.38355179419897</v>
       </c>
       <c r="E17" t="n">
-        <v>4.151123576442654e-71</v>
+        <v>1.117211284768909e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03015239688676554</v>
+        <v>-0.02875011815056362</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02785670588544216</v>
+        <v>-0.02646585426362143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09354423343605005</v>
+        <v>0.09337178418770589</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02778046200621384</v>
+        <v>-0.02637635932620109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005918602127313485</v>
+        <v>0.0005885935096413053</v>
       </c>
       <c r="D18" t="n">
-        <v>-45.36702410947227</v>
+        <v>-44.78481199705619</v>
       </c>
       <c r="E18" t="n">
-        <v>1.291535726137029e-44</v>
+        <v>5.60183350062938e-41</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02894049143467792</v>
+        <v>-0.02752998613670759</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02662043257774977</v>
+        <v>-0.02522273251569459</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09476832281594005</v>
+        <v>0.09460341106859735</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02266152359602177</v>
+        <v>-0.02144502182227473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005999684431477382</v>
+        <v>0.0005971164598013759</v>
       </c>
       <c r="D19" t="n">
-        <v>-37.2420782396519</v>
+        <v>-36.83700007565039</v>
       </c>
       <c r="E19" t="n">
-        <v>1.327004240520837e-35</v>
+        <v>1.865653847611268e-31</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02383744499539763</v>
+        <v>-0.02261535343797081</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02148560219664589</v>
+        <v>-0.02027469020657865</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09988726122613213</v>
+        <v>0.0995347485725237</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01943808609083728</v>
+        <v>-0.01829920172923485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006047593180176778</v>
+        <v>0.000602487073020601</v>
       </c>
       <c r="D20" t="n">
-        <v>-30.70796846209864</v>
+        <v>-30.25088645151953</v>
       </c>
       <c r="E20" t="n">
-        <v>4.956202391358433e-16</v>
+        <v>2.498419830075335e-08</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02062339754251966</v>
+        <v>-0.01948005965771655</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0182527746391549</v>
+        <v>-0.01711834380075315</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1031106987313166</v>
+        <v>0.1026805686655636</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01535763598063881</v>
+        <v>-0.0140794796076443</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006064099760532624</v>
+        <v>0.0006032550616686848</v>
       </c>
       <c r="D21" t="n">
-        <v>-24.77052937055897</v>
+        <v>-24.0755654851815</v>
       </c>
       <c r="E21" t="n">
-        <v>4.595342966176211e-08</v>
+        <v>7.074107076867919e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01654618261416826</v>
+        <v>-0.01526184271651146</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01416908934710935</v>
+        <v>-0.01289711649877713</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1071911488415151</v>
+        <v>0.1069002907871541</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01168270091330123</v>
+        <v>-0.01043481836312377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005915934827280048</v>
+        <v>0.0005879616939842121</v>
       </c>
       <c r="D22" t="n">
-        <v>-18.9907449089927</v>
+        <v>-18.28145213316521</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0004712429164848759</v>
+        <v>0.1075268117474217</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01284220758429973</v>
+        <v>-0.01158720685289686</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01052319424230274</v>
+        <v>-0.009282429873350696</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1108660839088527</v>
+        <v>0.1105449520316747</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.009026339830258931</v>
+        <v>-0.007658300995137046</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005838807018699947</v>
+        <v>0.0005803857648174051</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.42972490255434</v>
+        <v>-14.46474150170157</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05298309404894173</v>
+        <v>0.1283086910449832</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01017072968032115</v>
+        <v>-0.008795840888763713</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.007881949980196725</v>
+        <v>-0.006520761101510378</v>
       </c>
       <c r="H23" t="n">
-        <v>0.113522444991895</v>
+        <v>0.1133214693996614</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.006258683418861363</v>
+        <v>-0.005060446488163777</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005709994668426012</v>
+        <v>0.0005673736447722663</v>
       </c>
       <c r="D24" t="n">
-        <v>-10.05139853199129</v>
+        <v>-9.294999395913708</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001011949902866033</v>
+        <v>0.07202779472431349</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007377826487897082</v>
+        <v>-0.006172483061791423</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005139540349825643</v>
+        <v>-0.003948409914536135</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1162901014032925</v>
+        <v>0.1159193239066346</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.006472555300048615</v>
+        <v>-0.005576980441113828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005547277163917625</v>
+        <v>0.0005525437179568389</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.478052682572638</v>
+        <v>-8.741448139488234</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03125499100556205</v>
+        <v>0.09262704585288709</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007559806294410761</v>
+        <v>-0.006659950862960645</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.005385304305686471</v>
+        <v>-0.004494010019267011</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1160762295221053</v>
+        <v>0.1154027899536846</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06177481790951234</v>
+        <v>0.05950140143751573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003779857791944061</v>
+        <v>0.003951049583502108</v>
       </c>
       <c r="D26" t="n">
-        <v>46.02572417280035</v>
+        <v>44.46237095923758</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1414671711601413</v>
+        <v>0.1764471306115874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05436641309928673</v>
+        <v>0.05175746572009816</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06918322271973795</v>
+        <v>0.06724533715493329</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1843236027316662</v>
+        <v>0.1804811718323142</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year5final.xlsx
+++ b/hourly datasets/cap_gen_year5final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,613 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1209797703947984</v>
+        <v>0.1357507923244536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002089308703062038</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006985687626970338</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.520373574125732</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07107426272702802</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0007201335389858184</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00345848386713826</v>
-      </c>
+        <v>0.1001396522775783</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1230690790978605</v>
+        <v>0.2358904446020319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01024217460254284</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0009011464281883686</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.644824702376005</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.07177496006050352</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.008475953103669437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01200839610141624</v>
-      </c>
+        <v>0.09043182713392807</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1312219449973413</v>
+        <v>0.2261826194583816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02028663618828075</v>
+        <v>0.05907968718699146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001576510161498548</v>
+        <v>0.005218768664416906</v>
       </c>
       <c r="D5" t="n">
-        <v>13.28042297738359</v>
+        <v>10.84621684313756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001182805875605856</v>
+        <v>0.05844348682476177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0171967215619678</v>
+        <v>0.04883038745971342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02337655081459368</v>
+        <v>0.06932898691426866</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1412664065830792</v>
+        <v>0.1948304795114451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03881939878911145</v>
+        <v>0.03370161831278131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002487435878206536</v>
+        <v>0.002957449985203743</v>
       </c>
       <c r="D6" t="n">
-        <v>18.75494335474501</v>
+        <v>4.430956428316878</v>
       </c>
       <c r="E6" t="n">
-        <v>4.966715041089692e-05</v>
+        <v>0.02038186308791518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03394409537173813</v>
+        <v>0.02790162931235877</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04369470220648475</v>
+        <v>0.03950160731320317</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1597991691839099</v>
+        <v>0.1694524106372349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04528512106239811</v>
+        <v>0.02291787166775393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002450247766066553</v>
+        <v>0.001921623820760415</v>
       </c>
       <c r="D7" t="n">
-        <v>17.75747425887568</v>
+        <v>2.295992414605396</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005071076112776833</v>
+        <v>0.01345427134545947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0404827074765988</v>
+        <v>0.01914902096352097</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05008753464819744</v>
+        <v>0.0266867223719858</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1662648914571965</v>
+        <v>0.1586686639922075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04720174920127816</v>
+        <v>0.01954581972030588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003628748397988297</v>
+        <v>0.001378392506658432</v>
       </c>
       <c r="D8" t="n">
-        <v>15.46617215545358</v>
+        <v>1.985305840492278</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003835165332490384</v>
+        <v>0.003667557663267384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04008950799018277</v>
+        <v>0.01684256542665967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05431399041237354</v>
+        <v>0.02224907401395225</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1681815195960766</v>
+        <v>0.1552966120447595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04493209252243339</v>
+        <v>0.01471712181925711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003759078199975125</v>
+        <v>0.001365819523452741</v>
       </c>
       <c r="D9" t="n">
-        <v>14.01400992880932</v>
+        <v>1.300587350207876</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02422627755085175</v>
+        <v>0.006792279588098984</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03756441243456</v>
+        <v>0.01203908851207969</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05229977261030676</v>
+        <v>0.01739515512643507</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1659118629172318</v>
+        <v>0.1504679141437107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1209797703947984</v>
+        <v>0.01408275627449898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005618713017146018</v>
+        <v>0.001276746171621304</v>
       </c>
       <c r="D10" t="n">
-        <v>-244.3908751303201</v>
+        <v>1.006539479644881</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.007434466737417345</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1220810224663037</v>
+        <v>0.01157912075214609</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1198785183232931</v>
+        <v>0.01658639179685211</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1498335485989526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05887543782651282</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0006246346491662278</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-99.73853818345948</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.06009970418288097</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.05765117147014465</v>
-      </c>
+        <v>0.0323458135649779</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.06210433256828561</v>
+        <v>0.1680966058894315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05069135913768774</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000624179591895947</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-86.03892654460378</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.05191473361242009</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.04946798466295541</v>
-      </c>
+        <v>0.04837881222490571</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.07028841125711069</v>
+        <v>0.1841296045493593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04203988774122252</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0006165232080574035</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-70.59205500976907</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.04324825592950937</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.04083151955293567</v>
-      </c>
+        <v>0.05813964506875654</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.0789398826535759</v>
+        <v>0.1938904373932101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0378348859531329</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0006136696655682695</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-62.87905218504054</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.767544313461574e-283</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.03903766129394022</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.03663211061232558</v>
-      </c>
+        <v>0.06406636219017835</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.08314488444166553</v>
+        <v>0.1998171545146319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03309209760491393</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005989420244442222</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-55.30499359554866</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.829208641091726e-144</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.03426600719654359</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.03191818801328427</v>
-      </c>
+        <v>0.0711499558345554</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08788767278988451</v>
+        <v>0.206900748159009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03024884685571339</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005761119199505458</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-51.38468234111776</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.136430771357794e-80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.03137801014060445</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02911968357082233</v>
-      </c>
+        <v>0.0753327872190193</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.09073092353908505</v>
+        <v>0.2110835795434729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02760798620709253</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005827286809812273</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-46.38355179419897</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.117211284768909e-07</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02875011815056362</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.02646585426362143</v>
-      </c>
+        <v>0.07739524264429587</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.09337178418770589</v>
+        <v>0.2131460349687495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02637635932620109</v>
+        <v>-0.1357507923244536</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005885935096413053</v>
+        <v>0.009343329605847344</v>
       </c>
       <c r="D18" t="n">
-        <v>-44.78481199705619</v>
+        <v>-1053299333850.299</v>
       </c>
       <c r="E18" t="n">
-        <v>5.60183350062938e-41</v>
+        <v>0.02937493694947991</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02752998613670759</v>
+        <v>-0.1542003339282113</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02522273251569459</v>
+        <v>-0.1173012507206953</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09460341106859735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02144502182227473</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005971164598013759</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-36.83700007565039</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.865653847611268e-31</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.02261535343797081</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.02027469020657865</v>
-      </c>
+        <v>0.0781118389558878</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.0995347485725237</v>
+        <v>0.2138626312803414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01829920172923485</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.000602487073020601</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-30.25088645151953</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.498419830075335e-08</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01948005965771655</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01711834380075315</v>
-      </c>
+        <v>0.08247902143185498</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.1026805686655636</v>
+        <v>0.2182298137563086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0140794796076443</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0006032550616686848</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-24.0755654851815</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.074107076867919e-06</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01526184271651146</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.01289711649877713</v>
-      </c>
+        <v>0.08590745816449182</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.1069002907871541</v>
+        <v>0.2216582504889454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01043481836312377</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005879616939842121</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-18.28145213316521</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1075268117474217</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.01158720685289686</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.009282429873350696</v>
-      </c>
+        <v>0.08877832342665141</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.1105449520316747</v>
+        <v>0.224529115751105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.007658300995137046</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005803857648174051</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-14.46474150170157</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1283086910449832</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.008795840888763713</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.006520761101510378</v>
-      </c>
+        <v>0.09210814008540745</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1133214693996614</v>
+        <v>0.227858932409861</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005060446488163777</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005673736447722663</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-9.294999395913708</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.07202779472431349</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.006172483061791423</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.003948409914536135</v>
-      </c>
+        <v>0.0954208798322205</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1159193239066346</v>
+        <v>0.2311716721566741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.005576980441113828</v>
+        <v>0.09626946421295521</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005525437179568389</v>
+        <v>0.008206674419166404</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.741448139488234</v>
+        <v>505689134820.4066</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09262704585288709</v>
+        <v>0.04993575891815871</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006659950862960645</v>
+        <v>0.08012546170989243</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.004494010019267011</v>
+        <v>0.1124134667160184</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1154027899536846</v>
+        <v>0.2320202565374088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09882538195518069</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008217092141446039</v>
+      </c>
+      <c r="D26" t="n">
+        <v>667198890603.3064</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05384168848602399</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08267189046908735</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1149788734412745</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2345761742796343</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.104823230273344</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008474247295900825</v>
+      </c>
+      <c r="D27" t="n">
+        <v>597286605112.2745</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04639447508049249</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.08816825129228886</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1214782092543995</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2405740225977975</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09992054696073982</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.008649852901599035</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.03018923659398</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.07123711433707362</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08291518984680012</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1169259040746789</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2356713392851934</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.05950140143751573</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.003951049583502108</v>
-      </c>
-      <c r="D26" t="n">
-        <v>44.46237095923758</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1764471306115874</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.05175746572009816</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06724533715493329</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1804811718323142</v>
+      <c r="B29" t="n">
+        <v>0.01843674455721507</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001804888949322926</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.097777776447125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.006753653242279812</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01487777179417077</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02199571732025936</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1541875368816686</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year5final.xlsx
+++ b/hourly datasets/cap_gen_year5final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1357507923244536</v>
+        <v>0.09280751105506574</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1001396522775783</v>
+        <v>0.103151799219635</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2358904446020319</v>
+        <v>0.1959593102747007</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09043182713392807</v>
+        <v>0.09048863435816971</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2261826194583816</v>
+        <v>0.1832961454132355</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05907968718699146</v>
+        <v>0.06387097079667473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005218768664416906</v>
+        <v>0.006256020468073837</v>
       </c>
       <c r="D5" t="n">
-        <v>10.84621684313756</v>
+        <v>10.61619576591366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05844348682476177</v>
+        <v>0.06818126676673325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04883038745971342</v>
+        <v>0.05158639374718649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06932898691426866</v>
+        <v>0.07615554784616198</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1948304795114451</v>
+        <v>0.1566784818517405</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +564,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03370161831278131</v>
+        <v>0.04005464743891991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002957449985203743</v>
+        <v>0.004456084037186648</v>
       </c>
       <c r="D6" t="n">
-        <v>4.430956428316878</v>
+        <v>4.713788261422956</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02038186308791518</v>
+        <v>0.03321303009358303</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02790162931235877</v>
+        <v>0.03131215345572928</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03950160731320317</v>
+        <v>0.04879714142210963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1694524106372349</v>
+        <v>0.1328621584939856</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +592,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02291787166775393</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001921623820760415</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.295992414605396</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01345427134545947</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01914902096352097</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0266867223719858</v>
-      </c>
+        <v>0.03111834027607828</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1586686639922075</v>
+        <v>0.123925851331144</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01954581972030588</v>
+        <v>0.02732859978610495</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001378392506658432</v>
+        <v>0.002703184104130505</v>
       </c>
       <c r="D8" t="n">
-        <v>1.985305840492278</v>
+        <v>2.616546450868733</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003667557663267384</v>
+        <v>0.01354470906404969</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01684256542665967</v>
+        <v>0.02202435973850002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02224907401395225</v>
+        <v>0.0326328398337099</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1552966120447595</v>
+        <v>0.1201361108411707</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01471712181925711</v>
+        <v>0.02521493548482489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001365819523452741</v>
+        <v>0.002887811832640039</v>
       </c>
       <c r="D9" t="n">
-        <v>1.300587350207876</v>
+        <v>2.13909171682071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006792279588098984</v>
+        <v>0.01819187325317444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01203908851207969</v>
+        <v>0.01954940697130819</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01739515512643507</v>
+        <v>0.0308804639983412</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1504679141437107</v>
+        <v>0.1180224465398906</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01408275627449898</v>
+        <v>0.02450256121722537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001276746171621304</v>
+        <v>0.002623639709169693</v>
       </c>
       <c r="D10" t="n">
-        <v>1.006539479644881</v>
+        <v>1.884502709513444</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007434466737417345</v>
+        <v>0.01780690246746566</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01157912075214609</v>
+        <v>0.01935504060988099</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01658639179685211</v>
+        <v>0.02965008182456945</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1498335485989526</v>
+        <v>0.1173100722722911</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0323458135649779</v>
+        <v>0.03298186556308941</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1680966058894315</v>
+        <v>0.1257893766181551</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04837881222490571</v>
+        <v>0.0491487951751833</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1841296045493593</v>
+        <v>0.141956306230249</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05813964506875654</v>
+        <v>0.06100490878150903</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.1938904373932101</v>
+        <v>0.1538124198365748</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +748,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06406636219017835</v>
+        <v>0.06606352031034302</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -766,7 +756,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.1998171545146319</v>
+        <v>0.1588710313654088</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0711499558345554</v>
+        <v>0.07210076590075497</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +774,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.206900748159009</v>
+        <v>0.1649082769558207</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +784,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0753327872190193</v>
+        <v>0.07739935413739364</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -802,7 +792,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2110835795434729</v>
+        <v>0.1702068651924594</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07739524264429587</v>
+        <v>0.07893862506383548</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -820,7 +810,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2131460349687495</v>
+        <v>0.1717461361189012</v>
       </c>
     </row>
     <row r="18">
@@ -830,22 +820,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1357507923244536</v>
+        <v>-0.09280751105506574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009343329605847344</v>
+        <v>0.01092901732207689</v>
       </c>
       <c r="D18" t="n">
-        <v>-1053299333850.299</v>
+        <v>-16.51209139823487</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02937493694947991</v>
+        <v>0.04191690866172165</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1542003339282113</v>
+        <v>-0.1142767561183235</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1173012507206953</v>
+        <v>-0.07133826599180827</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -858,7 +848,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0781118389558878</v>
+        <v>0.07884046889105732</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -866,7 +856,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2138626312803414</v>
+        <v>0.1716479799461231</v>
       </c>
     </row>
     <row r="20">
@@ -876,7 +866,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08247902143185498</v>
+        <v>0.08467423743518479</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -884,7 +874,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2182298137563086</v>
+        <v>0.1774817484902505</v>
       </c>
     </row>
     <row r="21">
@@ -894,7 +884,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08590745816449182</v>
+        <v>0.08772785525910158</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -902,7 +892,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2216582504889454</v>
+        <v>0.1805353663141673</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +902,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08877832342665141</v>
+        <v>0.09058560586556964</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -920,7 +910,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.224529115751105</v>
+        <v>0.1833931169206354</v>
       </c>
     </row>
     <row r="23">
@@ -930,7 +920,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09210814008540745</v>
+        <v>0.09369842156729383</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -938,7 +928,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.227858932409861</v>
+        <v>0.1865059326223596</v>
       </c>
     </row>
     <row r="24">
@@ -948,15 +938,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0954208798322205</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.09608927244233402</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.008627719292247897</v>
+      </c>
+      <c r="D24" t="n">
+        <v>223035066761.7094</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05386315405091487</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.07913560427109874</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1130429406135694</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2311716721566741</v>
+        <v>0.1888967834973997</v>
       </c>
     </row>
     <row r="25">
@@ -966,25 +966,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09626946421295521</v>
+        <v>0.09713797541985594</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008206674419166404</v>
+        <v>0.008427197005246143</v>
       </c>
       <c r="D25" t="n">
-        <v>505689134820.4066</v>
+        <v>465908856722.3784</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04993575891815871</v>
+        <v>0.05166444712238601</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08012546170989243</v>
+        <v>0.08057705399739304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1124134667160184</v>
+        <v>0.1136988968423189</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2320202565374088</v>
+        <v>0.1899454864749217</v>
       </c>
     </row>
     <row r="26">
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09882538195518069</v>
+        <v>0.100270206048319</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008217092141446039</v>
+        <v>0.008697650599882477</v>
       </c>
       <c r="D26" t="n">
-        <v>667198890603.3064</v>
+        <v>590819431733.5083</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05384168848602399</v>
+        <v>0.05710141576481517</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08267189046908735</v>
+        <v>0.08318171286105486</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1149788734412745</v>
+        <v>0.1173586992355835</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2345761742796343</v>
+        <v>0.1930777171033847</v>
       </c>
     </row>
     <row r="27">
@@ -1022,25 +1022,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.104823230273344</v>
+        <v>0.1053440025506479</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008474247295900825</v>
+        <v>0.008939364405148918</v>
       </c>
       <c r="D27" t="n">
-        <v>597286605112.2745</v>
+        <v>587199074062.0693</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04639447508049249</v>
+        <v>0.04922793667344875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08816825129228886</v>
+        <v>0.08777675243249138</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1214782092543995</v>
+        <v>0.1229112526688048</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2405740225977975</v>
+        <v>0.1981515136057136</v>
       </c>
     </row>
     <row r="28">
@@ -1050,25 +1050,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09992054696073982</v>
+        <v>0.1017496236079487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008649852901599035</v>
+        <v>0.008846132272907111</v>
       </c>
       <c r="D28" t="n">
-        <v>17.03018923659398</v>
+        <v>16.87761100610693</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07123711433707362</v>
+        <v>0.07632351879072788</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08291518984680012</v>
+        <v>0.08437087950573437</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1169259040746789</v>
+        <v>0.1191283677101631</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2356713392851934</v>
+        <v>0.1945571346630145</v>
       </c>
     </row>
     <row r="29">
@@ -1078,25 +1078,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01843674455721507</v>
+        <v>0.0304729534264252</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001804888949322926</v>
+        <v>0.003074019037222985</v>
       </c>
       <c r="D29" t="n">
-        <v>2.097777776447125</v>
+        <v>3.384110462072563</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006753653242279812</v>
+        <v>0.01694674548598612</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01487777179417077</v>
+        <v>0.02443253681086965</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02199571732025936</v>
+        <v>0.03651337004198098</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1541875368816686</v>
+        <v>0.1232804644814909</v>
       </c>
     </row>
   </sheetData>
